--- a/registrasi3.xlsx
+++ b/registrasi3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\COLEYAH\SEM 5\AVD\prak\UAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\COLEYAH\SEM 5\AVD\prak\AVD_WatingTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G116"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1026,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="4">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="4">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="G23" s="4">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2199,7 +2199,7 @@
         <v>35</v>
       </c>
       <c r="G69" s="4">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2222,7 +2222,7 @@
         <v>34</v>
       </c>
       <c r="G70" s="5">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2498,7 +2498,7 @@
         <v>34</v>
       </c>
       <c r="G82" s="4">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2843,7 +2843,7 @@
         <v>34</v>
       </c>
       <c r="G97" s="4">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2866,7 +2866,7 @@
         <v>35</v>
       </c>
       <c r="G98" s="4">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2889,7 +2889,7 @@
         <v>35</v>
       </c>
       <c r="G99" s="4">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3280,7 +3280,7 @@
         <v>34</v>
       </c>
       <c r="G116" s="4">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/registrasi3.xlsx
+++ b/registrasi3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\COLEYAH\SEM 5\AVD\prak\AVD_WatingTime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aivel/Documents/coolyeah/semester 5/avd prak/AVD_WatingTime/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BF867-81C6-0C46-BD0F-2B97A49A80A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7608"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,12 +146,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -176,6 +171,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -183,18 +185,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -208,8 +198,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -219,61 +221,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -281,34 +238,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,57 +549,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>48</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -657,15 +608,15 @@
       <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>54</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -680,15 +631,15 @@
       <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>51</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -703,15 +654,15 @@
       <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>53</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -726,15 +677,15 @@
       <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>55</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -749,15 +700,15 @@
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>53</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -772,15 +723,15 @@
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>71</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -795,15 +746,15 @@
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -818,15 +769,15 @@
       <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -841,15 +792,15 @@
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -864,15 +815,15 @@
       <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -887,15 +838,15 @@
       <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -910,15 +861,15 @@
       <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>66</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -933,15 +884,15 @@
       <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -956,15 +907,15 @@
       <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>71</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -979,15 +930,15 @@
       <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>48</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1002,15 +953,15 @@
       <c r="F17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1025,15 +976,15 @@
       <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>24</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1048,15 +999,15 @@
       <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>67</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1071,15 +1022,15 @@
       <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>35</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1094,15 +1045,15 @@
       <c r="F21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>57</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1117,15 +1068,15 @@
       <c r="F22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1140,15 +1091,15 @@
       <c r="F23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1163,15 +1114,15 @@
       <c r="F24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1186,15 +1137,15 @@
       <c r="F25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>38</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1209,15 +1160,15 @@
       <c r="F26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>62</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1232,15 +1183,15 @@
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>16</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1255,15 +1206,15 @@
       <c r="F28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>32</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1278,15 +1229,15 @@
       <c r="F29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>35</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1301,15 +1252,15 @@
       <c r="F30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>55</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1324,15 +1275,15 @@
       <c r="F31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1347,15 +1298,15 @@
       <c r="F32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>26</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1370,15 +1321,15 @@
       <c r="F33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>74</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1393,15 +1344,15 @@
       <c r="F34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1416,15 +1367,15 @@
       <c r="F35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>64</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1439,15 +1390,15 @@
       <c r="F36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>55</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1462,15 +1413,15 @@
       <c r="F37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>21</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1485,15 +1436,15 @@
       <c r="F38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>7</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1508,15 +1459,15 @@
       <c r="F39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>50</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1531,15 +1482,15 @@
       <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>76</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1554,15 +1505,15 @@
       <c r="F41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>76</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1577,15 +1528,15 @@
       <c r="F42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>68</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1600,15 +1551,15 @@
       <c r="F43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>8</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1623,15 +1574,15 @@
       <c r="F44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>7</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1646,15 +1597,15 @@
       <c r="F45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1669,15 +1620,15 @@
       <c r="F46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>56</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1692,15 +1643,15 @@
       <c r="F47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>63</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1715,15 +1666,15 @@
       <c r="F48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>38</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1738,15 +1689,15 @@
       <c r="F49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>12</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1761,15 +1712,15 @@
       <c r="F50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>36</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1784,15 +1735,15 @@
       <c r="F51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>31</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1807,15 +1758,15 @@
       <c r="F52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>16</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1830,15 +1781,15 @@
       <c r="F53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1853,15 +1804,15 @@
       <c r="F54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>19</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1876,15 +1827,15 @@
       <c r="F55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>57</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1899,15 +1850,15 @@
       <c r="F56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1922,15 +1873,15 @@
       <c r="F57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>75</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1945,15 +1896,15 @@
       <c r="F58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>64</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1968,15 +1919,15 @@
       <c r="F59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>66</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1991,15 +1942,15 @@
       <c r="F60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>37</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2014,15 +1965,15 @@
       <c r="F61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>10</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2037,15 +1988,15 @@
       <c r="F62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>84</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2060,15 +2011,15 @@
       <c r="F63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>58</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2083,15 +2034,15 @@
       <c r="F64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>59</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2106,15 +2057,15 @@
       <c r="F65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>48</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2129,15 +2080,15 @@
       <c r="F66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>27</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2152,15 +2103,15 @@
       <c r="F67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G67" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G67" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>32</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2175,15 +2126,15 @@
       <c r="F68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>59</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2198,15 +2149,15 @@
       <c r="F69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2221,15 +2172,15 @@
       <c r="F70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2244,15 +2195,15 @@
       <c r="F71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>31</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2267,15 +2218,15 @@
       <c r="F72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>46</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2290,15 +2241,15 @@
       <c r="F73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G73" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G73" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2313,15 +2264,15 @@
       <c r="F74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>1</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2336,15 +2287,15 @@
       <c r="F75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>20</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2359,15 +2310,15 @@
       <c r="F76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G76" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G76" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>80</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2382,15 +2333,15 @@
       <c r="F77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>27</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2405,15 +2356,15 @@
       <c r="F78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>18</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2428,15 +2379,15 @@
       <c r="F79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>52</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2451,15 +2402,15 @@
       <c r="F80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>58</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2474,15 +2425,15 @@
       <c r="F81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>56</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2497,15 +2448,15 @@
       <c r="F82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>24</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2520,15 +2471,15 @@
       <c r="F83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G83" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G83" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>29</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2543,15 +2494,15 @@
       <c r="F84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>13</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2566,15 +2517,15 @@
       <c r="F85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>4</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2589,15 +2540,15 @@
       <c r="F86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>51</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2612,15 +2563,15 @@
       <c r="F87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>18</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2635,15 +2586,15 @@
       <c r="F88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>67</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2658,15 +2609,15 @@
       <c r="F89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>69</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2681,15 +2632,15 @@
       <c r="F90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G90" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G90" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -2704,15 +2655,15 @@
       <c r="F91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>67</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -2727,15 +2678,15 @@
       <c r="F92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G92" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G92" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>10</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -2750,15 +2701,15 @@
       <c r="F93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>34</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2773,15 +2724,15 @@
       <c r="F94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>51</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2796,15 +2747,15 @@
       <c r="F95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>54</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2819,15 +2770,15 @@
       <c r="F96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G96" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G96" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>30</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2842,15 +2793,15 @@
       <c r="F97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2865,15 +2816,15 @@
       <c r="F98" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>48</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2888,15 +2839,15 @@
       <c r="F99" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -2911,15 +2862,15 @@
       <c r="F100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>51</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -2934,15 +2885,15 @@
       <c r="F101" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>8</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2957,15 +2908,15 @@
       <c r="F102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>34</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2980,15 +2931,15 @@
       <c r="F103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -3003,15 +2954,15 @@
       <c r="F104" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G104" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G104" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>49</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -3026,15 +2977,15 @@
       <c r="F105" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>76</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3049,15 +3000,15 @@
       <c r="F106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>67</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3072,15 +3023,15 @@
       <c r="F107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>48</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -3095,15 +3046,15 @@
       <c r="F108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>40</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3118,15 +3069,15 @@
       <c r="F109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>58</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -3141,15 +3092,15 @@
       <c r="F110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -3164,15 +3115,15 @@
       <c r="F111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G111" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G111" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>23</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -3187,15 +3138,15 @@
       <c r="F112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>23</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -3210,15 +3161,15 @@
       <c r="F113" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>72</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -3233,15 +3184,15 @@
       <c r="F114" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>5</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -3256,15 +3207,15 @@
       <c r="F115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>13</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -3279,7 +3230,7 @@
       <c r="F116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="1">
         <v>39</v>
       </c>
     </row>
